--- a/TestActiTimeFramework/data/TestData.xlsx
+++ b/TestActiTimeFramework/data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivp\Desktop\wcsm7seleniumworkspace\TestActiTimeFramework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivp\git\repository2\TestActiTimeFramework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDB6A3-C740-4C88-B05B-3C575BA516B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00EF2C8-EBFA-4D0C-972C-205DAE9BE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,5 +530,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>